--- a/Israel Soccer.xlsx
+++ b/Israel Soccer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\excels\Excel-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE0BF36-5C10-4E7C-8F45-CEB88F950A26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A873937-B096-44A5-8090-0C63A5646953}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="756" xr2:uid="{AE3B1B17-1A6D-4954-AF23-F92081253C02}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="184">
   <si>
     <t>עונה</t>
   </si>
@@ -614,12 +614,18 @@
       <t>1,2</t>
     </r>
   </si>
+  <si>
+    <t>שם הקבוצה</t>
+  </si>
+  <si>
+    <t>מספר עונות בהם זכתה הקבוצה</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +681,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -696,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -719,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -749,11 +759,338 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="97">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -950,9 +1287,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1065,9 +1399,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1719,7 +2050,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'פר מועדון'!$A$4:$A$17</c:f>
+              <c:f>'פר מועדון'!$A$4:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1766,7 +2097,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'פר מועדון'!$B$4:$B$17</c:f>
+              <c:f>'פר מועדון'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1833,7 +2164,7 @@
       <c:catAx>
         <c:axId val="676745048"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1887,7 +2218,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2068,7 +2399,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="accent4">
                       <a:lumMod val="50000"/>
@@ -2139,7 +2470,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent4">
                         <a:lumMod val="50000"/>
@@ -2372,7 +2703,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3029,7 +3360,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'פר עיר ומחוז'!$A$4:$A$13</c:f>
+              <c:f>'פר עיר ומחוז'!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3064,7 +3395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'פר עיר ומחוז'!$B$4:$B$13</c:f>
+              <c:f>'פר עיר ומחוז'!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3119,7 +3450,7 @@
       <c:catAx>
         <c:axId val="445672064"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3173,7 +3504,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5586,7 +5917,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="50000"/>
@@ -5657,7 +5988,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent6">
                         <a:lumMod val="50000"/>
@@ -5700,7 +6031,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'פר מועדון'!$A$4:$A$17</c:f>
+              <c:f>'פר מועדון'!$A$4:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5747,7 +6078,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'פר מועדון'!$B$4:$B$17</c:f>
+              <c:f>'פר מועדון'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5814,7 +6145,7 @@
       <c:catAx>
         <c:axId val="676745048"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5840,7 +6171,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5868,7 +6199,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6053,7 +6384,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="accent1">
                       <a:lumMod val="75000"/>
@@ -6124,7 +6455,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
                         <a:lumMod val="75000"/>
@@ -6167,7 +6498,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'פר עיר ומחוז'!$A$4:$A$13</c:f>
+              <c:f>'פר עיר ומחוז'!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6202,7 +6533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'פר עיר ומחוז'!$B$4:$B$13</c:f>
+              <c:f>'פר עיר ומחוז'!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6257,7 +6588,7 @@
       <c:catAx>
         <c:axId val="445672064"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6283,7 +6614,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6311,7 +6642,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6999,7 +7330,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="accent2">
                       <a:lumMod val="50000"/>
@@ -7070,7 +7401,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent2">
                         <a:lumMod val="50000"/>
@@ -7387,7 +7718,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13436,16 +13767,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13478,15 +13809,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>416453</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15345</xdr:rowOff>
+      <xdr:colOff>194203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>378882</xdr:colOff>
+      <xdr:colOff>156632</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13513,16 +13844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>56619</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25929</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67202</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>116415</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>42434</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>359831</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>158850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13557,15 +13888,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13597,16 +13928,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14238,8 +14569,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DED5737-439E-444F-BE3E-6993B0608BB2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DED5737-439E-444F-BE3E-6993B0608BB2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="שם הקבוצה">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
       <items count="67">
@@ -14361,7 +14692,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="13">
     <i>
       <x v="10"/>
     </i>
@@ -14401,37 +14732,34 @@
     <i>
       <x v="6"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of עונה" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="מספר עונות בהם זכתה הקבוצה" fld="0" subtotal="count" baseField="2" baseItem="10"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="48">
+    <format dxfId="96">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="95">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="94">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14464,7 +14792,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -14477,8 +14805,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9061D54F-78F1-40C2-8624-283BACFED403}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9061D54F-78F1-40C2-8624-283BACFED403}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="עיר">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
       <items count="67">
@@ -14609,7 +14937,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="9">
     <i>
       <x v="11"/>
     </i>
@@ -14637,37 +14965,40 @@
     <i>
       <x v="9"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of עונה" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="מספר זכיות" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="42">
+  <formats count="8">
+    <format dxfId="90">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="89">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="88">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14691,7 +15022,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -14967,29 +15298,29 @@
     <dataField name="Count of עונה" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="28">
+    <format dxfId="78">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="77">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="75">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="74">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="73">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="7">
@@ -15004,10 +15335,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15021,7 +15352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15037,7 +15368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15052,7 +15383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15068,7 +15399,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15084,7 +15415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15099,7 +15430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15115,7 +15446,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15148,7 +15479,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight10" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -15293,26 +15624,26 @@
     <dataField name="Count of עונה" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="12">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="58">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -15325,10 +15656,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="6">
@@ -15345,7 +15676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="4">
@@ -15360,7 +15691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="5">
@@ -15376,7 +15707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="3">
@@ -15390,7 +15721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="2">
@@ -15403,7 +15734,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15436,7 +15767,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight12" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="2">
     <filter fld="1" type="count" evalOrder="-1" id="2" iMeasureFld="0">
       <autoFilter ref="A1">
@@ -15612,16 +15943,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69D33392-3A36-4A94-B3B9-4DB916F5F2F0}" name="Table3" displayName="Table3" ref="M3:Q9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69D33392-3A36-4A94-B3B9-4DB916F5F2F0}" name="Table3" displayName="Table3" ref="M3:Q9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="84">
   <autoFilter ref="M3:Q9" xr:uid="{9795E6BD-3F27-425F-9B9C-92A45F821B3E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55A10883-A65E-415E-8DD9-88717050C08B}" name="y" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{F97B9D59-8EF5-441A-9A6C-609216A6B9A9}" name="x" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{285E6F9D-CDF2-441C-92CB-9D2FA54AF4BB}" name="מחוז" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{26317F1C-FADD-41FC-A842-811624063FB1}" name="מספר זכיות" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{55A10883-A65E-415E-8DD9-88717050C08B}" name="y" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{F97B9D59-8EF5-441A-9A6C-609216A6B9A9}" name="x" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{285E6F9D-CDF2-441C-92CB-9D2FA54AF4BB}" name="מחוז" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{26317F1C-FADD-41FC-A842-811624063FB1}" name="מספר זכיות" dataDxfId="80">
       <calculatedColumnFormula>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{72096AC8-F556-487A-8976-84DD0BD0036E}" name="מקסימום זכיות" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{72096AC8-F556-487A-8976-84DD0BD0036E}" name="מקסימום זכיות" dataDxfId="79">
       <calculatedColumnFormula>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15630,14 +15961,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56700772-9B24-4623-BA5F-FE85AFF62B6E}" name="Table6" displayName="Table6" ref="C3:C12" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56700772-9B24-4623-BA5F-FE85AFF62B6E}" name="Table6" displayName="Table6" ref="C3:C12" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="C3:C12" xr:uid="{8709B870-64C6-4CB5-B453-DF81E317D7E8}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{38E3E85C-16A0-4CD1-BD4A-B84A8D03B493}" name="מחוז">
       <calculatedColumnFormula>VLOOKUP(A4,'רשימת ערים ומחוזות'!A:B,2,FALSE())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -15944,100 +16275,98 @@
   </sheetPr>
   <dimension ref="B2:T75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="AA60" sqref="AA60"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="9.140625" style="15"/>
-    <col min="17" max="17" width="9.140625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="16" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="R73" s="20" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="R73" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="R74" s="20" t="s">
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="R74" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="16"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="15"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16060,135 +16389,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA9190-7487-473A-A29C-143A5A4345DC}">
   <dimension ref="A3:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>82</v>
+      <c r="A3" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="26">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="26">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="7">
-        <v>66</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16200,53 +16525,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AD8DC3-3046-42C2-AB95-C9B4173A1E01}">
   <dimension ref="A3:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>82</v>
+      <c r="A3" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="26">
         <v>26</v>
       </c>
       <c r="C4" t="str">
@@ -16266,16 +16591,16 @@
         <f>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="14" t="str">
+      <c r="Q4" s="13" t="str">
         <f>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="26">
         <v>13</v>
       </c>
       <c r="C5" t="str">
@@ -16295,16 +16620,16 @@
         <f>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</f>
         <v>13</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="13" t="str">
         <f>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="26">
         <v>6</v>
       </c>
       <c r="C6" t="str">
@@ -16324,16 +16649,16 @@
         <f>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</f>
         <v>12</v>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="13" t="str">
         <f>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="26">
         <v>6</v>
       </c>
       <c r="C7" t="str">
@@ -16353,16 +16678,16 @@
         <f>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</f>
         <v>29</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <f>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</f>
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="26">
         <v>5</v>
       </c>
       <c r="C8" t="str">
@@ -16382,16 +16707,16 @@
         <f>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</f>
         <v>6</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="13" t="str">
         <f>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="26">
         <v>5</v>
       </c>
       <c r="C9" t="str">
@@ -16411,16 +16736,16 @@
         <f>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</f>
         <v>5</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="13" t="str">
         <f>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="26">
         <v>3</v>
       </c>
       <c r="C10" t="str">
@@ -16429,10 +16754,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="26">
         <v>1</v>
       </c>
       <c r="C11" t="str">
@@ -16441,10 +16766,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="26">
         <v>1</v>
       </c>
       <c r="C12" t="str">
@@ -16456,12 +16781,8 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="7">
-        <v>66</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q15" s="6"/>
@@ -16495,9 +16816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD16B75-99C1-48A2-BD66-1CB0FBA8AF4B}">
   <dimension ref="A3:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16835,8 +17154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA2646B-7FE8-4CAD-96ED-166C1C3E0BAF}">
   <dimension ref="A3:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17140,7 +17459,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18204,7 +18523,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="5" t="str">
-        <f t="shared" ref="D66:D97" si="3">IF(LEN(TRIM(C66))-LEN(SUBSTITUTE(C66," ",""))&lt;=2,RIGHT(C66,LEN(C66)-LEN(LEFT(C66,FIND(" ",C66)))),RIGHT(C66,LEN(C66)-LEN(LEFT(C66,FIND(" ",C66,FIND(" ",C66)+1)))))</f>
+        <f t="shared" ref="D66:D67" si="3">IF(LEN(TRIM(C66))-LEN(SUBSTITUTE(C66," ",""))&lt;=2,RIGHT(C66,LEN(C66)-LEN(LEFT(C66,FIND(" ",C66)))),RIGHT(C66,LEN(C66)-LEN(LEFT(C66,FIND(" ",C66,FIND(" ",C66)+1)))))</f>
         <v>באר שבע</v>
       </c>
     </row>
@@ -18225,7 +18544,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D67" xr:uid="{BDD21530-86B9-4ED0-A7B8-00F0A14D2548}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -18235,9 +18553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192C40E-6719-4295-9AC6-60FBE07A9437}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Israel Soccer.xlsx
+++ b/Israel Soccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\excels\Excel-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A873937-B096-44A5-8090-0C63A5646953}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291F213-F40C-444B-AC65-5871C9CF12CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="756" xr2:uid="{AE3B1B17-1A6D-4954-AF23-F92081253C02}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ליגת העל בכדורגל'!$A$1:$D$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'רשימת ערים ומחוזות'!$A$1:$A$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'דוח אינטרקטיבי'!$B$2:$R$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'דוח אינטרקטיבי'!$D$1:$R$67</definedName>
     <definedName name="Slicer_אלופה">#N/A</definedName>
     <definedName name="Slicer_עונה">#N/A</definedName>
     <definedName name="Slicer_עיר">#N/A</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="183">
   <si>
     <t>עונה</t>
   </si>
@@ -588,13 +588,13 @@
     <t>מקסימום זכיות</t>
   </si>
   <si>
-    <t>2. הנתונים מעודכנים עד יוני 2018</t>
+    <t>שם הקבוצה</t>
   </si>
   <si>
-    <t>1. הליגה נקראה "ליגת העל" מעונת 1999/2000, עד אז נקראה הליגה "הליגה הלאומית" (משנת 1955) ולפני כן "ליגה א'" ו"הליגה הארצית"</t>
+    <t>מספר עונות בהם זכתה הקבוצה</t>
   </si>
   <si>
-    <t>הדוח הוכן על ידי נדיה חרלמובה</t>
+    <t>** הנתונים מעודכנים עד יוני 2018</t>
   </si>
   <si>
     <r>
@@ -611,21 +611,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1,2</t>
+      <t>*</t>
     </r>
   </si>
   <si>
-    <t>שם הקבוצה</t>
-  </si>
-  <si>
-    <t>מספר עונות בהם זכתה הקבוצה</t>
+    <t>* ליגה נקראת "ליגת העל" מעונה 1999/2000, עד אז נקראה הליגה "הליגה הלאומית" (משנת 1955) ולפני כן "ליגה א'" ו-"הליגה הארצית"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,15 +646,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -673,8 +661,7 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -682,9 +669,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -697,7 +687,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -705,11 +695,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -735,10 +734,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -748,54 +744,41 @@
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="171">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="left"/>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -973,6 +956,29 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <name val="Calibri"/>
         <charset val="204"/>
@@ -1090,6 +1096,464 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <font>
@@ -1287,6 +1751,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1399,6 +1866,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <font>
@@ -2145,7 +2621,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9388-4630-8E67-E7B8733C5E90}"/>
+              <c16:uniqueId val="{00000000-F9D1-4E77-8AE7-342D408EC102}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3431,7 +3907,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB8E-4B55-A750-4C70E6D87FBA}"/>
+              <c16:uniqueId val="{00000000-5203-4FC3-B2A9-B56189C9BB70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6126,7 +6602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CC2-4F73-BCAE-69BD1F672E45}"/>
+              <c16:uniqueId val="{00000000-45DD-4A6D-A809-C5CD5AEC1B5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6569,7 +7045,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6645-490D-8D0E-CBB2DFA4120A}"/>
+              <c16:uniqueId val="{00000000-B83D-467C-9F8A-4CF060DEFBE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13289,16 +13765,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41234</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>31436</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161834</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13327,16 +13803,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>39461</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>460334</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>582200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40961</xdr:rowOff>
+      <xdr:colOff>580934</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13363,18 +13839,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>184848</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>170266</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>98809</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>463148</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>96483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13402,8 +13878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125200" y="11881548"/>
-          <a:ext cx="2152650" cy="2199961"/>
+          <a:off x="170266" y="9925049"/>
+          <a:ext cx="1512082" cy="1544284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13414,16 +13890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>96611</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55522</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>382150</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>77111</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448672</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13452,19 +13928,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34695</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>72800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99195</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30568</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="עונה 2">
@@ -13487,7 +13963,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13497,8 +13973,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11664950" y="872895"/>
-              <a:ext cx="1819050" cy="2160000"/>
+              <a:off x="19050" y="857018"/>
+              <a:ext cx="1815875" cy="2539050"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13530,19 +14006,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120419</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>79150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>184919</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97242</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="אלופה 2">
@@ -13565,7 +14041,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13575,8 +14051,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11671300" y="3435119"/>
-              <a:ext cx="1819050" cy="2160000"/>
+              <a:off x="19050" y="3609742"/>
+              <a:ext cx="1815875" cy="2520000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13608,19 +14084,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>31520</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>150581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>72800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>96020</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3581</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="עיר 2">
@@ -13643,7 +14119,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13653,8 +14129,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11664950" y="6013220"/>
-              <a:ext cx="1819050" cy="2160000"/>
+              <a:off x="19050" y="6373581"/>
+              <a:ext cx="1815875" cy="2520000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13686,16 +14162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>46566</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>97671</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38060</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>64333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396966</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>78171</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431210</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13725,15 +14201,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:colOff>572825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>557214</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>576271</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14740,26 +15216,26 @@
     <dataField name="מספר עונות בהם זכתה הקבוצה" fld="0" subtotal="count" baseField="2" baseItem="10"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="96">
+    <format dxfId="170">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="169">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="168">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14973,32 +15449,32 @@
     <dataField name="מספר זכיות" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="90">
+    <format dxfId="164">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="163">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="162">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="158">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15298,29 +15774,29 @@
     <dataField name="Count of עונה" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="78">
+    <format dxfId="148">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="147">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="145">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="144">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="143">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="7">
@@ -15335,10 +15811,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15352,7 +15828,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15368,7 +15844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15383,7 +15859,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15399,7 +15875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15415,7 +15891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15430,7 +15906,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -15446,7 +15922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15624,26 +16100,26 @@
     <dataField name="Count of עונה" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="62">
+    <format dxfId="132">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="130">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="129">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="128">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -15656,10 +16132,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="6">
@@ -15676,7 +16152,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="4">
@@ -15691,7 +16167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="5">
@@ -15707,7 +16183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="3">
@@ -15721,7 +16197,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="2">
@@ -15734,7 +16210,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15936,23 +16412,23 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="עונה 2" xr10:uid="{8E7B1EBF-B068-427C-8449-A15EAD91BA62}" cache="Slicer_עונה" caption="בחר/י עונה" rowHeight="241300"/>
-  <slicer name="אלופה 2" xr10:uid="{66E87738-3B88-4589-B6E7-0E09412EC318}" cache="Slicer_אלופה" caption="בחר/י קבוצה" startItem="4" rowHeight="241300"/>
-  <slicer name="עיר 2" xr10:uid="{683F6C88-5F75-4ACE-9A00-511A8429B433}" cache="Slicer_עיר" caption="בחר/י עיר" rowHeight="241300"/>
+  <slicer name="עונה 2" xr10:uid="{8E7B1EBF-B068-427C-8449-A15EAD91BA62}" cache="Slicer_עונה" caption="בחר/י עונה" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="אלופה 2" xr10:uid="{66E87738-3B88-4589-B6E7-0E09412EC318}" cache="Slicer_אלופה" caption="בחר/י קבוצה" startItem="4" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="עיר 2" xr10:uid="{683F6C88-5F75-4ACE-9A00-511A8429B433}" cache="Slicer_עיר" caption="בחר/י עיר" style="SlicerStyleOther1" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69D33392-3A36-4A94-B3B9-4DB916F5F2F0}" name="Table3" displayName="Table3" ref="M3:Q9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69D33392-3A36-4A94-B3B9-4DB916F5F2F0}" name="Table3" displayName="Table3" ref="M3:Q9" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="M3:Q9" xr:uid="{9795E6BD-3F27-425F-9B9C-92A45F821B3E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55A10883-A65E-415E-8DD9-88717050C08B}" name="y" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{F97B9D59-8EF5-441A-9A6C-609216A6B9A9}" name="x" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{285E6F9D-CDF2-441C-92CB-9D2FA54AF4BB}" name="מחוז" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{26317F1C-FADD-41FC-A842-811624063FB1}" name="מספר זכיות" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{55A10883-A65E-415E-8DD9-88717050C08B}" name="y" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{F97B9D59-8EF5-441A-9A6C-609216A6B9A9}" name="x" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{285E6F9D-CDF2-441C-92CB-9D2FA54AF4BB}" name="מחוז" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{26317F1C-FADD-41FC-A842-811624063FB1}" name="מספר זכיות" dataDxfId="151">
       <calculatedColumnFormula>SUMIF(Table6[מחוז], Table3[[#This Row],[מחוז]],$B$4:$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{72096AC8-F556-487A-8976-84DD0BD0036E}" name="מקסימום זכיות" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{72096AC8-F556-487A-8976-84DD0BD0036E}" name="מקסימום זכיות" dataDxfId="150">
       <calculatedColumnFormula>IF(Table3[[#This Row],[מספר זכיות]]=MAX(Table3[מספר זכיות]), Table3[[#This Row],[מספר זכיות]], "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15961,7 +16437,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56700772-9B24-4623-BA5F-FE85AFF62B6E}" name="Table6" displayName="Table6" ref="C3:C12" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56700772-9B24-4623-BA5F-FE85AFF62B6E}" name="Table6" displayName="Table6" ref="C3:C12" totalsRowShown="0" headerRowDxfId="149">
   <autoFilter ref="C3:C12" xr:uid="{8709B870-64C6-4CB5-B453-DF81E317D7E8}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{38E3E85C-16A0-4CD1-BD4A-B84A8D03B493}" name="מחוז">
@@ -16273,107 +16749,110 @@
     <tabColor theme="8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:T75"/>
+  <dimension ref="D1:T74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="9.140625" style="14"/>
-    <col min="17" max="17" width="9.140625" style="14" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="11" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="4:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="R73" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="4:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R66" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R67" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+    </row>
+    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+    </row>
+    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D74" s="18"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="R74" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="15"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="D1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"-,Italic"הדוח הוכן על ידי נדיה חרלמובה&amp;Rאוגוסט 2018</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
@@ -16400,114 +16879,114 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>183</v>
+      <c r="A3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16542,10 +17021,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -16568,10 +17047,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="7">
         <v>26</v>
       </c>
       <c r="C4" t="str">
@@ -16597,10 +17076,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="7">
         <v>13</v>
       </c>
       <c r="C5" t="str">
@@ -16626,10 +17105,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
       <c r="C6" t="str">
@@ -16655,10 +17134,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
       <c r="C7" t="str">
@@ -16684,10 +17163,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
       <c r="C8" t="str">
@@ -16713,10 +17192,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
       <c r="C9" t="str">
@@ -16742,10 +17221,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
       <c r="C10" t="str">
@@ -16754,10 +17233,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" t="str">
@@ -16766,10 +17245,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" t="str">
